--- a/modelo físico excel med.xlsx
+++ b/modelo físico excel med.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>TipoUsuário</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Clínica Médica Med LTDA</t>
+  </si>
+  <si>
+    <t>IdClinica</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -381,43 +384,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -467,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,24 +441,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,15 +460,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,61 +477,74 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -880,19 +841,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -901,20 +862,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="35"/>
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="29" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="30"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -923,48 +884,48 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="19">
         <v>1</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -975,401 +936,402 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="20">
         <v>2</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="19">
         <v>3</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="11">
+      <c r="D9" s="8">
         <v>555555555</v>
       </c>
-      <c r="F9" s="11">
+      <c r="E9" s="8">
         <v>44444444444</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="12">
+      <c r="G9" s="9">
         <v>29519</v>
       </c>
-      <c r="I9" s="11">
+      <c r="H9" s="8">
         <v>1140028922</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="36"/>
+      <c r="D11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>1</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="14">
         <v>4</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="15">
         <v>2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="15">
         <v>9</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>3</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>5</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="J17" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>6</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="16">
         <v>1</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="16">
         <v>2</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="21">
         <v>1</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="18">
         <v>2</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="24">
         <v>37802</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>7</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>8</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>9</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="28">
         <v>1</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>11</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>12</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>13</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>14</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>15</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>16</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>17</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D16:I16"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A7:I7"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
